--- a/results/synechocystis_sp_pcc_6803/Iron_limitation_Study/BAR_condition-specific_enrichment_analysis.xlsx
+++ b/results/synechocystis_sp_pcc_6803/Iron_limitation_Study/BAR_condition-specific_enrichment_analysis.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bg11-EX_photon_e127.48-control_30_Presence" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bg11-EX_photon_e127.48-EX_fe2_e6.61eminus05-EX_fe3_e6.02eminus05-no_Fe_30_Presence" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bg11-EX_photon_e127.48-control_30" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bg11-EX_photon_e127.48-EX_fe2_e6.61eminus05-EX_fe3_e6.02eminus05-no_Fe_30" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,686 +458,686 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Photosynthesis</t>
+          <t>Fatty acid biosynthesis</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3.132587165140493e-53</v>
+        <v>1.102773693463101e-17</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8764044943820225</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8764044943820225</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Galactolipids metabolism</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3.639574712772993e-43</v>
+        <v>5.726013445716298e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6850393700787402</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6850393700787402</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Oxidative phosphorylation</t>
+          <t>Ubiquinone and other pterpenoids biosynthesis</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7.521841552179412e-34</v>
+        <v>0.006616745755136348</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Porphyrin and chlorophyll metabolism</t>
+          <t>Carotenoid Biosynthesis</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.771737042685697e-29</v>
+        <v>0.009500395087611307</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8627450980392157</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8627450980392157</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Purine metabolism</t>
+          <t>Porphyrin and chlorophyll metabolism</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5.398574461752839e-21</v>
+        <v>0.009896246546937286</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8421052631578947</v>
+        <v>0.8541666666666666</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8421052631578947</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pyruvate metabolism</t>
+          <t>Pyrimidine metabolism</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.911802236409212e-17</v>
+        <v>0.01928543912224173</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9565217391304348</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9565217391304348</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Riboflavin metabolism</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2.368662185824784e-16</v>
+        <v>0.02803507668491534</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8846153846153846</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8846153846153846</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Fatty acid biosynthesis</t>
+          <t>Sulfolipid Biosynthesis</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.930134035186178e-15</v>
+        <v>0.02803507668491534</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
+          <t>Pyruvate metabolism</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5.074263240947714e-15</v>
+        <v>0.03476714112327826</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pyrimidine metabolism</t>
+          <t>Pantothenate and CoA biosynthesis</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4.846304853779563e-14</v>
+        <v>0.04017106625657333</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8695652173913043</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8695652173913043</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Glyoxylate and dicarboxylate metabolism</t>
+          <t>Terpenoid backbone biosynthesis</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.617046713609058e-12</v>
+        <v>0.04017106625657333</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8947368421052632</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8947368421052632</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Arginine and proline metabolism</t>
+          <t>Nitrogen metabolism</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.314591315204815e-11</v>
+        <v>0.08469474296127705</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7407407407407407</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7407407407407407</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Folate biosynthesis</t>
+          <t>Carbon fixation</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.63715125947047e-10</v>
+        <v>0.1178234467268849</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Nitrogen metabolism</t>
+          <t>Citrate cycle (TCA cycle)</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2.983677793398165e-10</v>
+        <v>0.1178234467268849</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9285714285714286</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9285714285714286</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ubiquinone and other pterpenoids biosynthesis</t>
+          <t>Sterol biosynthesis</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.079404925374886e-09</v>
+        <v>0.1178234467268849</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Folate biosynthesis</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1264223557720849</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="E17" t="n">
         <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Histidine metabolism</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1.830778447580763e-09</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.9230769230769231</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.9230769230769231</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sulfur Cysteine and methionine metabolism</t>
+          <t>Lipopolysaccharide biosynthesis</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>6.251591204750577e-09</v>
+        <v>0.1684875288194454</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7777777777777778</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7777777777777778</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Pantothenate and CoA biosynthesis</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4.670874479786044e-08</v>
+        <v>0.2195439322897546</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Peptidoglycan biosynthesis</t>
+          <t>Glyoxylate and dicarboxylate metabolism</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4.670874479786044e-08</v>
+        <v>0.2463235170736684</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0.8125</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Pentose phosphate pathway</t>
+          <t>Urea cycle and metabolism of amino groups</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>6.737108738162744e-08</v>
+        <v>0.2561014338992159</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.875</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9090909090909091</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Valine leucine and isoleucine biosynthesis</t>
+          <t>Glutamate metabolism</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1.301959525634447e-06</v>
+        <v>0.2561014338992159</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.875</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7692307692307693</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Alanine, aspartate and glutamate metabolism</t>
+          <t>Histidine metabolism</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.301959525634447e-06</v>
+        <v>0.3139350889269636</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7692307692307693</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Carotenoid Biosynthesis</t>
+          <t>Lysine metabolism</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2.009021214998937e-06</v>
+        <v>0.3139350889269636</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Citrate cycle (TCA cycle)</t>
+          <t>C5-Branched dibasic acid metabolism</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2.009021214998937e-06</v>
+        <v>0.3440237396146983</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Riboflavin metabolism</t>
+          <t>Peptidoglycan biosynthesis</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2.009021214998937e-06</v>
+        <v>0.3844916548072315</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Carbon fixation</t>
+          <t>Aminosugars metabolism</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2.009021214998937e-06</v>
+        <v>0.421807939282248</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Terpenoid backbone biosynthesis</t>
+          <t>Pentose phosphate pathway</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2.009021214998937e-06</v>
+        <v>0.42278672012829</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Urea cycle and metabolism of amino groups</t>
+          <t>Valine leucine and isoleucine biosynthesis</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2.009021214998937e-06</v>
+        <v>0.4525616022804397</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Lysine metabolism</t>
+          <t>Sulfur Cysteine and methionine metabolism</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1.031442896593952e-05</v>
+        <v>0.4770046056091516</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>C5-Branched dibasic acid metabolism</t>
+          <t>Cyanophycin metabolism</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>8.58922812978429e-05</v>
+        <v>0.4912179764647684</v>
       </c>
       <c r="D31" t="n">
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide biosynthesis</t>
+          <t>Alanine, aspartate and glutamate metabolism</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>8.58922812978429e-05</v>
+        <v>0.4952124630019714</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Sterol biosynthesis</t>
+          <t>Purine metabolism</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>8.58922812978429e-05</v>
+        <v>0.5290482643459147</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Glutamate metabolism</t>
+          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.0001569968893089623</v>
+        <v>0.5826395362268371</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="E34" t="n">
-        <v>0.7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Starch and sucrose metabolism</t>
+          <t>Glycerolipid metabolism</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.0007798806214934568</v>
+        <v>0.7467830415564922</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5833333333333334</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Aminosugars metabolism</t>
+          <t>Others</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.00245819148422322</v>
+        <v>0.8762169212643204</v>
       </c>
       <c r="D36" t="n">
-        <v>0.8</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E36" t="n">
-        <v>0.8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Photosynthesis</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0.9401212538357974</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="E37" t="n">
         <v>13</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Nicotinate and nicotinamide metabolism</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>0.00319987161789395</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.625</v>
       </c>
     </row>
     <row r="38">
@@ -1146,36 +1146,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Nicotinate and nicotinamide metabolism</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.003650208963573005</v>
+        <v>0.9436934035302296</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Glycerolipid metabolism</t>
+          <t>Starch and sucrose metabolism</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.00647532771929903</v>
+        <v>0.9631565971853375</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="E39" t="n">
-        <v>0.6666666666666666</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40">
@@ -1184,159 +1184,159 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Sulfolipid Biosynthesis</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.02374245265900748</v>
+        <v>0.9734984313096169</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Galactolipids metabolism</t>
+          <t>Glutathione metabolism</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.02374245265900748</v>
+        <v>0.9734984313096169</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Cyanophycin metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.02374245265900748</v>
+        <v>0.992141976725526</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Hydrogen production</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.02861216149527333</v>
+        <v>0.992141976725526</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="E43" t="n">
-        <v>0.6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Arginine and proline metabolism</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0.9972334391955632</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.4838709677419355</v>
+      </c>
+      <c r="E44" t="n">
         <v>31</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Glutathione metabolism</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>0.4883879358000445</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.25</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Inositol phosphate metabolism</t>
+          <t>Oxidative phosphorylation</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.5673644047446388</v>
+        <v>0.9999158274862591</v>
       </c>
       <c r="D45" t="n">
-        <v>0.2</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="E45" t="n">
-        <v>0.2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Fructose and mannose metabolism</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.573098158333983</v>
+        <v>0.999999353853565</v>
       </c>
       <c r="D46" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="E46" t="n">
-        <v>0.1666666666666667</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Nucleotide sugars metabolism</t>
+          <t>Transport</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>0.9999999999999917</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>0.3761467889908257</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Thiamine metabolism</t>
+          <t>Nucleotide sugars metabolism</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1346,16 +1346,16 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Biotin metabolism</t>
+          <t>Steroid biosynthesis</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1365,16 +1365,16 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Vitamin B6 metabolism</t>
+          <t>Thiamine metabolism</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1384,16 +1384,16 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>PHB byosynthesis</t>
+          <t>Vitamin B6 metabolism</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1403,16 +1403,16 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Steroid biosynthesis</t>
+          <t>Hydrogen production</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1422,7 +1422,83 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>PHB byosynthesis</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
         <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Inositol phosphate metabolism</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Biotin metabolism</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Fructose and mannose metabolism</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1436,7 +1512,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1468,64 +1544,64 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Photosynthesis</t>
+          <t>Fatty acid biosynthesis</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4.775981649122863e-68</v>
+        <v>1.713900064310644e-18</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9662921348314607</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9662921348314607</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Oxidative phosphorylation</t>
+          <t>Galactolipids metabolism</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3.247485558844062e-46</v>
+        <v>3.614528723906698e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9142857142857143</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9142857142857143</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Ubiquinone and other pterpenoids biosynthesis</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4.939941353152145e-43</v>
+        <v>0.005226273030820087</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6850393700787402</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6850393700787402</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1533,659 +1609,659 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.071165771475114e-29</v>
+        <v>0.006223559260397005</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8627450980392157</v>
+        <v>0.8541666666666666</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8627450980392157</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Purine metabolism</t>
+          <t>Glyoxylate and dicarboxylate metabolism</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6.036815795947286e-21</v>
+        <v>0.02053124350408457</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8421052631578947</v>
+        <v>0.9375</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8421052631578947</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pyruvate metabolism</t>
+          <t>Riboflavin metabolism</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.299850464640192e-15</v>
+        <v>0.02370112460430794</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9130434782608695</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9130434782608695</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Fatty acid biosynthesis</t>
+          <t>Sulfolipid Biosynthesis</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2.057947180176787e-15</v>
+        <v>0.02370112460430794</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
+          <t>Pantothenate and CoA biosynthesis</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5.509509457403678e-15</v>
+        <v>0.03454054677829178</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Glyoxylate and dicarboxylate metabolism</t>
+          <t>Terpenoid backbone biosynthesis</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3.352234548886011e-14</v>
+        <v>0.03454054677829178</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9473684210526315</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9473684210526315</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pyrimidine metabolism</t>
+          <t>Sterol biosynthesis</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5.195401094224933e-14</v>
+        <v>0.1065661282703892</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8695652173913043</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8695652173913043</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Carbon fixation</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2.126824546959282e-13</v>
+        <v>0.1065661282703892</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8076923076923077</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8076923076923077</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Arginine and proline metabolism</t>
+          <t>Pyruvate metabolism</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.405886737286052e-11</v>
+        <v>0.1077916512114889</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7407407407407407</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7407407407407407</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Folate biosynthesis</t>
+          <t>Lipopolysaccharide biosynthesis</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.708259181525682e-10</v>
+        <v>0.1549724373830405</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ubiquinone and other pterpenoids biosynthesis</t>
+          <t>Carotenoid Biosynthesis</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.122265273005891e-09</v>
+        <v>0.1783727394881007</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Histidine metabolism</t>
+          <t>Photosynthesis</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.909181672533842e-09</v>
+        <v>0.1783727394881007</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9230769230769231</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sulfur Cysteine and methionine metabolism</t>
+          <t>Urea cycle and metabolism of amino groups</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>6.554606875408466e-09</v>
+        <v>0.2337548285341718</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.875</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7777777777777778</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Pantothenate and CoA biosynthesis</t>
+          <t>Glutamate metabolism</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4.821808783679257e-08</v>
+        <v>0.2337548285341718</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Peptidoglycan biosynthesis</t>
+          <t>Folate biosynthesis</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4.821808783679257e-08</v>
+        <v>0.2649118259418248</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrogen metabolism</t>
+          <t>Histidine metabolism</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2.603707352753e-07</v>
+        <v>0.2847748978334965</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7857142857142857</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7857142857142857</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Alanine, aspartate and glutamate metabolism</t>
+          <t>Lysine metabolism</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.346519445002693e-06</v>
+        <v>0.2847748978334965</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7692307692307693</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Valine leucine and isoleucine biosynthesis</t>
+          <t>C5-Branched dibasic acid metabolism</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1.346519445002693e-06</v>
+        <v>0.3272177779083418</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7692307692307693</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7692307692307693</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Riboflavin metabolism</t>
+          <t>Peptidoglycan biosynthesis</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2.059244847277451e-06</v>
+        <v>0.3539618836872738</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Urea cycle and metabolism of amino groups</t>
+          <t>Pyrimidine metabolism</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2.059244847277451e-06</v>
+        <v>0.3629460705808713</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Terpenoid backbone biosynthesis</t>
+          <t>Citrate cycle (TCA cycle)</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2.059244847277451e-06</v>
+        <v>0.3970039829462974</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Carbon fixation</t>
+          <t>Aminosugars metabolism</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2.059244847277451e-06</v>
+        <v>0.3970039829462974</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Valine leucine and isoleucine biosynthesis</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.4122119897515149</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E27" t="n">
         <v>16</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Carotenoid Biosynthesis</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>2.059244847277451e-06</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Lysine metabolism</t>
+          <t>Sulfur Cysteine and methionine metabolism</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1.059808178714945e-05</v>
+        <v>0.4326149162671756</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Nicotinate and nicotinamide metabolism</t>
+          <t>Nitrogen metabolism</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1.426654670733952e-05</v>
+        <v>0.459555949342823</v>
       </c>
       <c r="D29" t="n">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="E29" t="n">
-        <v>0.875</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Citrate cycle (TCA cycle)</t>
+          <t>Alanine, aspartate and glutamate metabolism</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>8.163356829968208e-05</v>
+        <v>0.459555949342823</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.75</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8571428571428571</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide biosynthesis</t>
+          <t>Cyanophycin metabolism</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>8.741787045876647e-05</v>
+        <v>0.4751003486999701</v>
       </c>
       <c r="D31" t="n">
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>C5-Branched dibasic acid metabolism</t>
+          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>8.741787045876647e-05</v>
+        <v>0.5294859573530092</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Sterol biosynthesis</t>
+          <t>Purine metabolism</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>8.741787045876647e-05</v>
+        <v>0.6063389225067888</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Glutamate metabolism</t>
+          <t>Glycerolipid metabolism</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.00016065851690831</v>
+        <v>0.7250365853086809</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E34" t="n">
-        <v>0.7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Pentose phosphate pathway</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.0003830170910158338</v>
+        <v>0.7762593347325948</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="E35" t="n">
-        <v>0.6363636363636364</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Starch and sucrose metabolism</t>
+          <t>Nicotinate and nicotinamide metabolism</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.0007972120647475173</v>
+        <v>0.7872445150236317</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.625</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5833333333333334</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Aminosugars metabolism</t>
+          <t>Others</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.002491794748420782</v>
+        <v>0.8607918124240352</v>
       </c>
       <c r="D37" t="n">
-        <v>0.8</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E37" t="n">
-        <v>0.8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Pentose phosphate pathway</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.003688903517941307</v>
+        <v>0.9276286650925992</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Glycerolipid metabolism</t>
+          <t>Starch and sucrose metabolism</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.00656063985316193</v>
+        <v>0.9549014152027603</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="E39" t="n">
-        <v>0.6666666666666666</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40">
@@ -2194,140 +2270,140 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Sulfolipid Biosynthesis</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.02390979995460025</v>
+        <v>0.9702828963507256</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Galactolipids metabolism</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.02390979995460025</v>
+        <v>0.9908429855034213</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Cyanophycin metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.02390979995460025</v>
+        <v>0.9908429855034213</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Hydrogen production</t>
+          <t>Arginine and proline metabolism</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.02888914371139813</v>
+        <v>0.9956381753070168</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="E43" t="n">
-        <v>0.6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Inositol phosphate metabolism</t>
+          <t>Oxidative phosphorylation</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.5687497244009847</v>
+        <v>0.9959767825686473</v>
       </c>
       <c r="D44" t="n">
-        <v>0.2</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="E44" t="n">
-        <v>0.2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Fructose and mannose metabolism</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.5751641842621762</v>
+        <v>0.9999983059924867</v>
       </c>
       <c r="D45" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="E45" t="n">
-        <v>0.1666666666666667</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Nucleotide sugars metabolism</t>
+          <t>Transport</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0.9999999999995817</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>0.3853211009174312</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Glutathione metabolism</t>
+          <t>Steroid biosynthesis</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -2337,16 +2413,16 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Thiamine metabolism</t>
+          <t>Inositol phosphate metabolism</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -2356,16 +2432,16 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Biotin metabolism</t>
+          <t>PHB byosynthesis</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -2375,12 +2451,12 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2394,16 +2470,16 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>PHB byosynthesis</t>
+          <t>Thiamine metabolism</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -2413,16 +2489,16 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Steroid biosynthesis</t>
+          <t>Fructose and mannose metabolism</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -2432,7 +2508,83 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Hydrogen production</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
         <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Glutathione metabolism</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Nucleotide sugars metabolism</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Biotin metabolism</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
